--- a/report/詳細設計書/詳細設計書_I0004_詳細画面.xlsx
+++ b/report/詳細設計書/詳細設計書_I0004_詳細画面.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dffsa\git\ISS_mini_project\report\詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{E7A69051-5472-4B0C-81F0-6F4C494F76FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE086E0-A4DF-4751-AB83-1AE3898DE6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="17" r:id="rId1"/>
     <sheet name="IE0001" sheetId="15" r:id="rId2"/>
-    <sheet name="IE0002" sheetId="18" r:id="rId3"/>
+    <sheet name="IE0002" sheetId="19" r:id="rId3"/>
+    <sheet name="IE0003" sheetId="18" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'IE0001'!$A$1:$AF$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'IE0002'!$A$1:$AF$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'IE0002'!$A$1:$AF$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'IE0003'!$A$1:$AF$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="44">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -173,20 +174,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>テキスト_タイトル</t>
-    <rPh sb="4" eb="6">
-      <t>サイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキスト_内容</t>
-    <rPh sb="4" eb="6">
-      <t>サイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>孟元永</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -227,10 +214,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>変更ボタン</t>
     <rPh sb="0" eb="5">
       <t>サイショ</t>
@@ -238,17 +221,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①I0005画面へ遷移</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>I0003に移動し、BOA_TBLに登録されている情報を表示する。</t>
-    <rPh sb="6" eb="8">
-      <t>ｲﾄﾞｳ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
       <t>サイショ</t>
@@ -264,9 +236,75 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>IE0003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>孟元永</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指摘対応</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表題</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>番号でデータを検索し、下記の該当内容を更新する。</t>
+    <rPh sb="6" eb="8">
+      <t>ｲﾄﾞｳ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>削除ボタン</t>
+    <rPh sb="0" eb="5">
+      <t>サイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>①変更ボタンを押下
-①詳細画面に表示されている『番号(No.3)』で、BOA_TBLからデータを検索する。
-②該当するデータをI0005画面の『テキスト_タイトル(No.6)』、『テキスト_内容(No.7)』に表示する。</t>
+②詳細画面に表示されている『番号(No.4)』で、BOA_TBLからデータを検索
+③DB上の削除フラグを　0　→　１　に更新する。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>①変更ボタンを押下
+②詳細画面に表示されている『番号(No.4)』で、BOA_TBLからデータを検索
+③『表題(No.6)』、『作成日時(No.10)』、『内容(No.12)』のデータを更新する</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>①I0003画面へ遷移</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -277,7 +315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +375,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -720,7 +765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -951,6 +996,15 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1323,15 +1377,23 @@
       <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="33">
+        <v>44724</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>30</v>
+      </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
-      <c r="G3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
-      <c r="J3" s="16"/>
+      <c r="J3" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
@@ -2059,7 +2121,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2072,14 +2136,14 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
       <c r="E1" s="37"/>
       <c r="F1" s="38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
@@ -2108,7 +2172,7 @@
       </c>
       <c r="Z1" s="37"/>
       <c r="AA1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB1" s="39"/>
       <c r="AC1" s="39"/>
@@ -2125,7 +2189,7 @@
       <c r="D2" s="46"/>
       <c r="E2" s="47"/>
       <c r="F2" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
@@ -2193,7 +2257,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="C5" s="65" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.4">
@@ -2231,10 +2295,10 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="C9" s="61" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="62"/>
@@ -2341,7 +2405,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="C16" s="68" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="69"/>
@@ -2642,10 +2706,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3F682C-DBA9-4B00-BB78-D6F1D5665D89}">
-  <dimension ref="A1:AF27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D989514-9A5F-4C56-933B-66518D2053D6}">
+  <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A8" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2658,7 +2724,7 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -2694,7 +2760,7 @@
       </c>
       <c r="Z1" s="37"/>
       <c r="AA1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB1" s="39"/>
       <c r="AC1" s="39"/>
@@ -2711,7 +2777,7 @@
       <c r="D2" s="46"/>
       <c r="E2" s="47"/>
       <c r="F2" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
@@ -2779,7 +2845,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="C5" s="65" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.4">
@@ -2817,10 +2883,10 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="C9" s="61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="62"/>
@@ -2831,7 +2897,7 @@
       <c r="K9" s="62"/>
       <c r="L9" s="63"/>
       <c r="M9" s="64" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N9" s="62"/>
       <c r="O9" s="62"/>
@@ -2845,10 +2911,10 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="C10" s="61" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E10" s="62"/>
       <c r="F10" s="62"/>
@@ -2859,7 +2925,7 @@
       <c r="K10" s="62"/>
       <c r="L10" s="63"/>
       <c r="M10" s="64" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="N10" s="62"/>
       <c r="O10" s="62"/>
@@ -2872,209 +2938,199 @@
       <c r="V10" s="63"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="C11" s="67"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
+      <c r="C11" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="63"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="B12" s="54" t="s">
+      <c r="C12" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="63"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="C13" s="67"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="B14" s="54" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="C13" s="58" t="s">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="C15" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D15" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="58" t="s">
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="60"/>
-    </row>
-    <row r="14" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="3">
-        <v>6</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="6" t="s">
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="60"/>
+    </row>
+    <row r="16" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="3"/>
+      <c r="D16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="5"/>
-    </row>
-    <row r="15" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="3">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="5"/>
-    </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B17" s="54" t="s">
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B19" s="54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="C18" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="70"/>
-    </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="C19" s="71"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="72"/>
-      <c r="Y19" s="72"/>
-      <c r="Z19" s="72"/>
-      <c r="AA19" s="72"/>
-      <c r="AB19" s="72"/>
-      <c r="AC19" s="73"/>
-    </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="73"/>
+      <c r="C20" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="69"/>
+      <c r="Y20" s="69"/>
+      <c r="Z20" s="69"/>
+      <c r="AA20" s="69"/>
+      <c r="AB20" s="69"/>
+      <c r="AC20" s="70"/>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.4">
       <c r="C21" s="71"/>
@@ -3251,37 +3307,717 @@
       <c r="AC26" s="73"/>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="C27" s="74"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="75"/>
-      <c r="V27" s="75"/>
-      <c r="W27" s="75"/>
-      <c r="X27" s="75"/>
-      <c r="Y27" s="75"/>
-      <c r="Z27" s="75"/>
-      <c r="AA27" s="75"/>
-      <c r="AB27" s="75"/>
-      <c r="AC27" s="76"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="72"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="72"/>
+      <c r="AA27" s="72"/>
+      <c r="AB27" s="72"/>
+      <c r="AC27" s="73"/>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="C28" s="71"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="72"/>
+      <c r="Y28" s="72"/>
+      <c r="Z28" s="72"/>
+      <c r="AA28" s="72"/>
+      <c r="AB28" s="72"/>
+      <c r="AC28" s="73"/>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="C29" s="74"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="75"/>
+      <c r="V29" s="75"/>
+      <c r="W29" s="75"/>
+      <c r="X29" s="75"/>
+      <c r="Y29" s="75"/>
+      <c r="Z29" s="75"/>
+      <c r="AA29" s="75"/>
+      <c r="AB29" s="75"/>
+      <c r="AC29" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C18:AC27"/>
+    <mergeCell ref="C20:AC29"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="82" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3F682C-DBA9-4B00-BB78-D6F1D5665D89}">
+  <dimension ref="A1:AF26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:AC26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="3.69921875" style="44"/>
+    <col min="3" max="3" width="4" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="3.69921875" style="44"/>
+    <col min="13" max="13" width="4.3984375" style="44" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="3.69921875" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A1" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="43"/>
+    </row>
+    <row r="2" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="53"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="B4" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="C5" s="65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="B7" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="C8" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="60"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="C9" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="63"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="C10" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="63"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="C11" s="67"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="B12" s="54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="C13" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="60"/>
+    </row>
+    <row r="14" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="B16" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.4">
+      <c r="C17" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="69"/>
+      <c r="AC17" s="70"/>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.4">
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="73"/>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.4">
+      <c r="C19" s="71"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="72"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="72"/>
+      <c r="AC19" s="73"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.4">
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="72"/>
+      <c r="AC20" s="73"/>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.4">
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="72"/>
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="72"/>
+      <c r="AA21" s="72"/>
+      <c r="AB21" s="72"/>
+      <c r="AC21" s="73"/>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.4">
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="72"/>
+      <c r="AC22" s="73"/>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.4">
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="72"/>
+      <c r="AA23" s="72"/>
+      <c r="AB23" s="72"/>
+      <c r="AC23" s="73"/>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.4">
+      <c r="C24" s="71"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="72"/>
+      <c r="AC24" s="73"/>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.4">
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="72"/>
+      <c r="Z25" s="72"/>
+      <c r="AA25" s="72"/>
+      <c r="AB25" s="72"/>
+      <c r="AC25" s="73"/>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.4">
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C17:AC26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/report/詳細設計書/詳細設計書_I0004_詳細画面.xlsx
+++ b/report/詳細設計書/詳細設計書_I0004_詳細画面.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dffsa\git\ISS_mini_project\report\詳細設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ISS\report\詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE086E0-A4DF-4751-AB83-1AE3898DE6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="17" r:id="rId1"/>
@@ -189,10 +188,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>戻るボタン</t>
     <rPh sb="0" eb="5">
       <t>サイショ</t>
@@ -232,10 +227,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>IE0003</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -246,10 +237,6 @@
   <si>
     <t>指摘対応</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>表題</t>
@@ -259,10 +246,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
       <t>サイショ</t>
@@ -292,48 +275,64 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>①I0003画面へ遷移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>①変更ボタンを押下
-②詳細画面に表示されている『番号(No.4)』で、BOA_TBLからデータを検索
+②詳細画面に表示されている『番号(No.5)』で、BOA_TBLからデータを検索
+③『表題(No.7)』、『作成日時(No.11)』、『内容(No.13)』のデータを更新する</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>①変更ボタンを押下
+②詳細画面に表示されている『番号(No.5)』で、BOA_TBLからデータを検索
 ③DB上の削除フラグを　0　→　１　に更新する。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>①変更ボタンを押下
-②詳細画面に表示されている『番号(No.4)』で、BOA_TBLからデータを検索
-③『表題(No.6)』、『作成日時(No.10)』、『内容(No.12)』のデータを更新する</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>①I0003画面へ遷移</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -363,14 +362,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -970,6 +969,15 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -996,20 +1004,11 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1320,20 +1319,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="3.69921875" style="7"/>
+    <col min="2" max="2" width="12.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
+    <row r="2" spans="1:28">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -1373,26 +1372,26 @@
       <c r="AA2" s="11"/>
       <c r="AB2" s="13"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28">
       <c r="A3" s="20">
         <v>1</v>
       </c>
       <c r="B3" s="33">
         <v>44724</v>
       </c>
-      <c r="C3" s="77" t="s">
-        <v>30</v>
+      <c r="C3" s="68" t="s">
+        <v>28</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="G3" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
       <c r="J3" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
@@ -1413,7 +1412,7 @@
       <c r="AA3" s="16"/>
       <c r="AB3" s="22"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -1445,7 +1444,7 @@
       <c r="AA4" s="16"/>
       <c r="AB4" s="22"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -1477,7 +1476,7 @@
       <c r="AA5" s="16"/>
       <c r="AB5" s="22"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -1509,7 +1508,7 @@
       <c r="AA6" s="16"/>
       <c r="AB6" s="22"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -1541,7 +1540,7 @@
       <c r="AA7" s="16"/>
       <c r="AB7" s="22"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -1573,7 +1572,7 @@
       <c r="AA8" s="16"/>
       <c r="AB8" s="22"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -1605,7 +1604,7 @@
       <c r="AA9" s="16"/>
       <c r="AB9" s="22"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -1637,7 +1636,7 @@
       <c r="AA10" s="16"/>
       <c r="AB10" s="22"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -1669,7 +1668,7 @@
       <c r="AA11" s="16"/>
       <c r="AB11" s="22"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -1701,7 +1700,7 @@
       <c r="AA12" s="16"/>
       <c r="AB12" s="22"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -1733,7 +1732,7 @@
       <c r="AA13" s="16"/>
       <c r="AB13" s="22"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -1765,7 +1764,7 @@
       <c r="AA14" s="16"/>
       <c r="AB14" s="22"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28">
       <c r="A15" s="20">
         <v>13</v>
       </c>
@@ -1797,7 +1796,7 @@
       <c r="AA15" s="16"/>
       <c r="AB15" s="22"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28">
       <c r="A16" s="20">
         <v>14</v>
       </c>
@@ -1829,7 +1828,7 @@
       <c r="AA16" s="16"/>
       <c r="AB16" s="22"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28">
       <c r="A17" s="20">
         <v>15</v>
       </c>
@@ -1861,7 +1860,7 @@
       <c r="AA17" s="16"/>
       <c r="AB17" s="22"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28">
       <c r="A18" s="20">
         <v>16</v>
       </c>
@@ -1893,7 +1892,7 @@
       <c r="AA18" s="16"/>
       <c r="AB18" s="22"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28">
       <c r="A19" s="20">
         <v>17</v>
       </c>
@@ -1925,7 +1924,7 @@
       <c r="AA19" s="16"/>
       <c r="AB19" s="22"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28">
       <c r="A20" s="20">
         <v>18</v>
       </c>
@@ -1957,7 +1956,7 @@
       <c r="AA20" s="16"/>
       <c r="AB20" s="22"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28">
       <c r="A21" s="20">
         <v>19</v>
       </c>
@@ -1989,7 +1988,7 @@
       <c r="AA21" s="16"/>
       <c r="AB21" s="22"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28">
       <c r="A22" s="20">
         <v>20</v>
       </c>
@@ -2021,7 +2020,7 @@
       <c r="AA22" s="16"/>
       <c r="AB22" s="22"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28">
       <c r="A23" s="14"/>
       <c r="B23" s="23"/>
       <c r="C23" s="24"/>
@@ -2051,7 +2050,7 @@
       <c r="AA23" s="18"/>
       <c r="AB23" s="19"/>
     </row>
-    <row r="24" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:28" ht="19.5" thickBot="1">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
@@ -2081,7 +2080,7 @@
       <c r="AA24" s="29"/>
       <c r="AB24" s="31"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28">
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
@@ -2118,25 +2117,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="3.69921875" style="44"/>
+    <col min="1" max="2" width="3.75" style="44"/>
     <col min="3" max="3" width="4" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="3.69921875" style="44"/>
-    <col min="13" max="13" width="4.3984375" style="44" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="3.69921875" style="44"/>
+    <col min="4" max="12" width="3.75" style="44"/>
+    <col min="13" max="13" width="4.375" style="44" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="3.75" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32">
       <c r="A1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -2180,7 +2179,7 @@
       <c r="AE1" s="39"/>
       <c r="AF1" s="43"/>
     </row>
-    <row r="2" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" ht="19.5" thickBot="1">
       <c r="A2" s="45" t="s">
         <v>10</v>
       </c>
@@ -2220,7 +2219,7 @@
       <c r="AE2" s="48"/>
       <c r="AF2" s="53"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32">
       <c r="B4" s="54" t="s">
         <v>11</v>
       </c>
@@ -2255,17 +2254,17 @@
       <c r="AE4" s="55"/>
       <c r="AF4" s="55"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32">
       <c r="C5" s="65" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="B7" s="56" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32">
       <c r="C8" s="57" t="s">
         <v>2</v>
       </c>
@@ -2293,12 +2292,12 @@
       <c r="U8" s="59"/>
       <c r="V8" s="60"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32">
       <c r="C9" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="64" t="s">
         <v>22</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>23</v>
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="62"/>
@@ -2321,7 +2320,7 @@
       <c r="U9" s="62"/>
       <c r="V9" s="63"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32">
       <c r="C10" s="67"/>
       <c r="D10" s="66"/>
       <c r="E10" s="66"/>
@@ -2343,12 +2342,12 @@
       <c r="U10" s="66"/>
       <c r="V10" s="66"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32">
       <c r="B11" s="54" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32">
       <c r="C12" s="58" t="s">
         <v>2</v>
       </c>
@@ -2376,7 +2375,7 @@
       <c r="U12" s="59"/>
       <c r="V12" s="60"/>
     </row>
-    <row r="13" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" s="2" customFormat="1">
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
       <c r="E13" s="4"/>
@@ -2398,302 +2397,302 @@
       <c r="U13" s="4"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32">
       <c r="B15" s="54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="C16" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="70"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.4">
-      <c r="C17" s="71"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="72"/>
-      <c r="Z17" s="72"/>
-      <c r="AA17" s="72"/>
-      <c r="AB17" s="72"/>
-      <c r="AC17" s="73"/>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.4">
-      <c r="C18" s="71"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="73"/>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.4">
-      <c r="C19" s="71"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="72"/>
-      <c r="Y19" s="72"/>
-      <c r="Z19" s="72"/>
-      <c r="AA19" s="72"/>
-      <c r="AB19" s="72"/>
-      <c r="AC19" s="73"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.4">
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="73"/>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.4">
-      <c r="C21" s="71"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="72"/>
-      <c r="X21" s="72"/>
-      <c r="Y21" s="72"/>
-      <c r="Z21" s="72"/>
-      <c r="AA21" s="72"/>
-      <c r="AB21" s="72"/>
-      <c r="AC21" s="73"/>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.4">
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="72"/>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="73"/>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.4">
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="72"/>
-      <c r="Y23" s="72"/>
-      <c r="Z23" s="72"/>
-      <c r="AA23" s="72"/>
-      <c r="AB23" s="72"/>
-      <c r="AC23" s="73"/>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.4">
-      <c r="C24" s="71"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="72"/>
-      <c r="Z24" s="72"/>
-      <c r="AA24" s="72"/>
-      <c r="AB24" s="72"/>
-      <c r="AC24" s="73"/>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.4">
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="75"/>
-      <c r="S25" s="75"/>
-      <c r="T25" s="75"/>
-      <c r="U25" s="75"/>
-      <c r="V25" s="75"/>
-      <c r="W25" s="75"/>
-      <c r="X25" s="75"/>
-      <c r="Y25" s="75"/>
-      <c r="Z25" s="75"/>
-      <c r="AA25" s="75"/>
-      <c r="AB25" s="75"/>
-      <c r="AC25" s="76"/>
+    <row r="16" spans="1:32">
+      <c r="C16" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="73"/>
+    </row>
+    <row r="17" spans="3:29">
+      <c r="C17" s="74"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="75"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="75"/>
+      <c r="Y17" s="75"/>
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="75"/>
+      <c r="AB17" s="75"/>
+      <c r="AC17" s="76"/>
+    </row>
+    <row r="18" spans="3:29">
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="75"/>
+      <c r="X18" s="75"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="76"/>
+    </row>
+    <row r="19" spans="3:29">
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="75"/>
+      <c r="T19" s="75"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="75"/>
+      <c r="W19" s="75"/>
+      <c r="X19" s="75"/>
+      <c r="Y19" s="75"/>
+      <c r="Z19" s="75"/>
+      <c r="AA19" s="75"/>
+      <c r="AB19" s="75"/>
+      <c r="AC19" s="76"/>
+    </row>
+    <row r="20" spans="3:29">
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="76"/>
+    </row>
+    <row r="21" spans="3:29">
+      <c r="C21" s="74"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="76"/>
+    </row>
+    <row r="22" spans="3:29">
+      <c r="C22" s="74"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="75"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="76"/>
+    </row>
+    <row r="23" spans="3:29">
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="75"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="76"/>
+    </row>
+    <row r="24" spans="3:29">
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="75"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="76"/>
+    </row>
+    <row r="25" spans="3:29">
+      <c r="C25" s="77"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="78"/>
+      <c r="AA25" s="78"/>
+      <c r="AB25" s="78"/>
+      <c r="AC25" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2706,25 +2705,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D989514-9A5F-4C56-933B-66518D2053D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A8" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="3.69921875" style="44"/>
+    <col min="1" max="2" width="3.75" style="44"/>
     <col min="3" max="3" width="4" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="3.69921875" style="44"/>
-    <col min="13" max="13" width="4.3984375" style="44" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="3.69921875" style="44"/>
+    <col min="4" max="12" width="3.75" style="44"/>
+    <col min="13" max="13" width="4.375" style="44" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="3.75" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32">
       <c r="A1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -2768,7 +2767,7 @@
       <c r="AE1" s="39"/>
       <c r="AF1" s="43"/>
     </row>
-    <row r="2" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" ht="19.5" thickBot="1">
       <c r="A2" s="45" t="s">
         <v>10</v>
       </c>
@@ -2808,7 +2807,7 @@
       <c r="AE2" s="48"/>
       <c r="AF2" s="53"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32">
       <c r="B4" s="54" t="s">
         <v>11</v>
       </c>
@@ -2843,17 +2842,17 @@
       <c r="AE4" s="55"/>
       <c r="AF4" s="55"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32">
       <c r="C5" s="65" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="B7" s="56" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32">
       <c r="C8" s="57" t="s">
         <v>2</v>
       </c>
@@ -2881,12 +2880,12 @@
       <c r="U8" s="59"/>
       <c r="V8" s="60"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32">
       <c r="C9" s="61" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="62"/>
@@ -2897,7 +2896,7 @@
       <c r="K9" s="62"/>
       <c r="L9" s="63"/>
       <c r="M9" s="64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N9" s="62"/>
       <c r="O9" s="62"/>
@@ -2909,12 +2908,12 @@
       <c r="U9" s="62"/>
       <c r="V9" s="63"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32">
       <c r="C10" s="61" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E10" s="62"/>
       <c r="F10" s="62"/>
@@ -2925,7 +2924,7 @@
       <c r="K10" s="62"/>
       <c r="L10" s="63"/>
       <c r="M10" s="64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N10" s="62"/>
       <c r="O10" s="62"/>
@@ -2937,12 +2936,12 @@
       <c r="U10" s="62"/>
       <c r="V10" s="63"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32">
       <c r="C11" s="61" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E11" s="62"/>
       <c r="F11" s="62"/>
@@ -2953,7 +2952,7 @@
       <c r="K11" s="62"/>
       <c r="L11" s="63"/>
       <c r="M11" s="64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N11" s="62"/>
       <c r="O11" s="62"/>
@@ -2965,12 +2964,12 @@
       <c r="U11" s="62"/>
       <c r="V11" s="63"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32">
       <c r="C12" s="61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
@@ -2993,7 +2992,7 @@
       <c r="U12" s="62"/>
       <c r="V12" s="63"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32">
       <c r="C13" s="67"/>
       <c r="D13" s="66"/>
       <c r="E13" s="66"/>
@@ -3015,12 +3014,12 @@
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32">
       <c r="B14" s="54" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32">
       <c r="C15" s="58" t="s">
         <v>2</v>
       </c>
@@ -3048,7 +3047,7 @@
       <c r="U15" s="59"/>
       <c r="V15" s="60"/>
     </row>
-    <row r="16" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" s="2" customFormat="1">
       <c r="C16" s="3"/>
       <c r="D16" s="6" t="s">
         <v>7</v>
@@ -3074,324 +3073,324 @@
       <c r="U16" s="4"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="79"/>
-    </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:29" s="2" customFormat="1">
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+    </row>
+    <row r="19" spans="2:29">
       <c r="B19" s="54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="C20" s="68" t="s">
+    <row r="20" spans="2:29">
+      <c r="C20" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="69"/>
-      <c r="Z20" s="69"/>
-      <c r="AA20" s="69"/>
-      <c r="AB20" s="69"/>
-      <c r="AC20" s="70"/>
-    </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="C21" s="71"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="72"/>
-      <c r="X21" s="72"/>
-      <c r="Y21" s="72"/>
-      <c r="Z21" s="72"/>
-      <c r="AA21" s="72"/>
-      <c r="AB21" s="72"/>
-      <c r="AC21" s="73"/>
-    </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="72"/>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="73"/>
-    </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="72"/>
-      <c r="Y23" s="72"/>
-      <c r="Z23" s="72"/>
-      <c r="AA23" s="72"/>
-      <c r="AB23" s="72"/>
-      <c r="AC23" s="73"/>
-    </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="C24" s="71"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="72"/>
-      <c r="Z24" s="72"/>
-      <c r="AA24" s="72"/>
-      <c r="AB24" s="72"/>
-      <c r="AC24" s="73"/>
-    </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="72"/>
-      <c r="X25" s="72"/>
-      <c r="Y25" s="72"/>
-      <c r="Z25" s="72"/>
-      <c r="AA25" s="72"/>
-      <c r="AB25" s="72"/>
-      <c r="AC25" s="73"/>
-    </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="C26" s="71"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="72"/>
-      <c r="X26" s="72"/>
-      <c r="Y26" s="72"/>
-      <c r="Z26" s="72"/>
-      <c r="AA26" s="72"/>
-      <c r="AB26" s="72"/>
-      <c r="AC26" s="73"/>
-    </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="C27" s="71"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="72"/>
-      <c r="X27" s="72"/>
-      <c r="Y27" s="72"/>
-      <c r="Z27" s="72"/>
-      <c r="AA27" s="72"/>
-      <c r="AB27" s="72"/>
-      <c r="AC27" s="73"/>
-    </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="C28" s="71"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="72"/>
-      <c r="W28" s="72"/>
-      <c r="X28" s="72"/>
-      <c r="Y28" s="72"/>
-      <c r="Z28" s="72"/>
-      <c r="AA28" s="72"/>
-      <c r="AB28" s="72"/>
-      <c r="AC28" s="73"/>
-    </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="C29" s="74"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="75"/>
-      <c r="T29" s="75"/>
-      <c r="U29" s="75"/>
-      <c r="V29" s="75"/>
-      <c r="W29" s="75"/>
-      <c r="X29" s="75"/>
-      <c r="Y29" s="75"/>
-      <c r="Z29" s="75"/>
-      <c r="AA29" s="75"/>
-      <c r="AB29" s="75"/>
-      <c r="AC29" s="76"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="72"/>
+      <c r="AC20" s="73"/>
+    </row>
+    <row r="21" spans="2:29">
+      <c r="C21" s="74"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="76"/>
+    </row>
+    <row r="22" spans="2:29">
+      <c r="C22" s="74"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="75"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="76"/>
+    </row>
+    <row r="23" spans="2:29">
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="75"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="76"/>
+    </row>
+    <row r="24" spans="2:29">
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="75"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="76"/>
+    </row>
+    <row r="25" spans="2:29">
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="75"/>
+      <c r="T25" s="75"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="75"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="75"/>
+      <c r="Y25" s="75"/>
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="75"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="76"/>
+    </row>
+    <row r="26" spans="2:29">
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="76"/>
+    </row>
+    <row r="27" spans="2:29">
+      <c r="C27" s="74"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="75"/>
+      <c r="Y27" s="75"/>
+      <c r="Z27" s="75"/>
+      <c r="AA27" s="75"/>
+      <c r="AB27" s="75"/>
+      <c r="AC27" s="76"/>
+    </row>
+    <row r="28" spans="2:29">
+      <c r="C28" s="74"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="75"/>
+      <c r="Y28" s="75"/>
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="75"/>
+      <c r="AB28" s="75"/>
+      <c r="AC28" s="76"/>
+    </row>
+    <row r="29" spans="2:29">
+      <c r="C29" s="77"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="78"/>
+      <c r="AC29" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3404,25 +3403,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3F682C-DBA9-4B00-BB78-D6F1D5665D89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:AC26"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="3.69921875" style="44"/>
+    <col min="1" max="2" width="3.75" style="44"/>
     <col min="3" max="3" width="4" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="3.69921875" style="44"/>
-    <col min="13" max="13" width="4.3984375" style="44" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="3.69921875" style="44"/>
+    <col min="4" max="12" width="3.75" style="44"/>
+    <col min="13" max="13" width="4.375" style="44" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="3.75" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32">
       <c r="A1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -3466,7 +3465,7 @@
       <c r="AE1" s="39"/>
       <c r="AF1" s="43"/>
     </row>
-    <row r="2" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" ht="19.5" thickBot="1">
       <c r="A2" s="45" t="s">
         <v>10</v>
       </c>
@@ -3506,7 +3505,7 @@
       <c r="AE2" s="48"/>
       <c r="AF2" s="53"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32">
       <c r="B4" s="54" t="s">
         <v>11</v>
       </c>
@@ -3541,17 +3540,17 @@
       <c r="AE4" s="55"/>
       <c r="AF4" s="55"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32">
       <c r="C5" s="65" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="B7" s="56" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32">
       <c r="C8" s="57" t="s">
         <v>2</v>
       </c>
@@ -3579,12 +3578,12 @@
       <c r="U8" s="59"/>
       <c r="V8" s="60"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32">
       <c r="C9" s="61" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="62"/>
@@ -3595,7 +3594,7 @@
       <c r="K9" s="62"/>
       <c r="L9" s="63"/>
       <c r="M9" s="64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N9" s="62"/>
       <c r="O9" s="62"/>
@@ -3607,12 +3606,12 @@
       <c r="U9" s="62"/>
       <c r="V9" s="63"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32">
       <c r="C10" s="61" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E10" s="62"/>
       <c r="F10" s="62"/>
@@ -3635,7 +3634,7 @@
       <c r="U10" s="62"/>
       <c r="V10" s="63"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32">
       <c r="C11" s="67"/>
       <c r="D11" s="66"/>
       <c r="E11" s="66"/>
@@ -3657,12 +3656,12 @@
       <c r="U11" s="66"/>
       <c r="V11" s="66"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32">
       <c r="B12" s="54" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32">
       <c r="C13" s="58" t="s">
         <v>2</v>
       </c>
@@ -3690,7 +3689,7 @@
       <c r="U13" s="59"/>
       <c r="V13" s="60"/>
     </row>
-    <row r="14" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" s="2" customFormat="1">
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
@@ -3718,302 +3717,302 @@
       <c r="U14" s="4"/>
       <c r="V14" s="5"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32">
       <c r="B16" s="54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.4">
-      <c r="C17" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="70"/>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.4">
-      <c r="C18" s="71"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="73"/>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.4">
-      <c r="C19" s="71"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="72"/>
-      <c r="Y19" s="72"/>
-      <c r="Z19" s="72"/>
-      <c r="AA19" s="72"/>
-      <c r="AB19" s="72"/>
-      <c r="AC19" s="73"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.4">
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="73"/>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.4">
-      <c r="C21" s="71"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="72"/>
-      <c r="X21" s="72"/>
-      <c r="Y21" s="72"/>
-      <c r="Z21" s="72"/>
-      <c r="AA21" s="72"/>
-      <c r="AB21" s="72"/>
-      <c r="AC21" s="73"/>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.4">
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="72"/>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="73"/>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.4">
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="72"/>
-      <c r="Y23" s="72"/>
-      <c r="Z23" s="72"/>
-      <c r="AA23" s="72"/>
-      <c r="AB23" s="72"/>
-      <c r="AC23" s="73"/>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.4">
-      <c r="C24" s="71"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="72"/>
-      <c r="Z24" s="72"/>
-      <c r="AA24" s="72"/>
-      <c r="AB24" s="72"/>
-      <c r="AC24" s="73"/>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.4">
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="72"/>
-      <c r="X25" s="72"/>
-      <c r="Y25" s="72"/>
-      <c r="Z25" s="72"/>
-      <c r="AA25" s="72"/>
-      <c r="AB25" s="72"/>
-      <c r="AC25" s="73"/>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.4">
-      <c r="C26" s="74"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
-      <c r="U26" s="75"/>
-      <c r="V26" s="75"/>
-      <c r="W26" s="75"/>
-      <c r="X26" s="75"/>
-      <c r="Y26" s="75"/>
-      <c r="Z26" s="75"/>
-      <c r="AA26" s="75"/>
-      <c r="AB26" s="75"/>
-      <c r="AC26" s="76"/>
+    <row r="17" spans="3:29">
+      <c r="C17" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="73"/>
+    </row>
+    <row r="18" spans="3:29">
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="75"/>
+      <c r="X18" s="75"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="76"/>
+    </row>
+    <row r="19" spans="3:29">
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="75"/>
+      <c r="T19" s="75"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="75"/>
+      <c r="W19" s="75"/>
+      <c r="X19" s="75"/>
+      <c r="Y19" s="75"/>
+      <c r="Z19" s="75"/>
+      <c r="AA19" s="75"/>
+      <c r="AB19" s="75"/>
+      <c r="AC19" s="76"/>
+    </row>
+    <row r="20" spans="3:29">
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="76"/>
+    </row>
+    <row r="21" spans="3:29">
+      <c r="C21" s="74"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="76"/>
+    </row>
+    <row r="22" spans="3:29">
+      <c r="C22" s="74"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="75"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="76"/>
+    </row>
+    <row r="23" spans="3:29">
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="75"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="76"/>
+    </row>
+    <row r="24" spans="3:29">
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="75"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="76"/>
+    </row>
+    <row r="25" spans="3:29">
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="75"/>
+      <c r="T25" s="75"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="75"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="75"/>
+      <c r="Y25" s="75"/>
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="75"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="76"/>
+    </row>
+    <row r="26" spans="3:29">
+      <c r="C26" s="77"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="78"/>
+      <c r="Z26" s="78"/>
+      <c r="AA26" s="78"/>
+      <c r="AB26" s="78"/>
+      <c r="AC26" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="1">
